--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2022-2023\TIMES_IERP_SIMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974D60CD-3626-4E69-8288-5670FEAE414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A47A397-257C-44C9-9A44-36F05CC425E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>2S2W2D</t>
+  </si>
+  <si>
+    <t>ANN</t>
   </si>
 </sst>
 </file>
@@ -4476,7 +4479,7 @@
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4542,29 +4545,33 @@
       <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="8" spans="2:8" ht="15.75" customHeight="1">
+      <c r="E8" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G8" s="25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E7" s="27" t="s">
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E9" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F9" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G9" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1"/>
     <row r="10" spans="2:8" ht="15.75" customHeight="1">
       <c r="E10" s="30" t="s">
         <v>4</v>
@@ -4756,7 +4763,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4831,20 +4838,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B18" s="19">
+    <row r="18" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="19" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="20" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B20" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B19">
+    <row r="21" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B21">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
       <c r="B22" s="19"/>
     </row>
@@ -5043,7 +5048,7 @@
   <dimension ref="B3:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -5121,20 +5126,15 @@
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="H9" s="33"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -5146,20 +5146,6 @@
       <c r="Q9"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B10" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26">
-        <f t="shared" ref="G10:G16" si="0">1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="H10" s="26"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -5171,20 +5157,6 @@
       <c r="Q10"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B11" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H11" s="33"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -5196,20 +5168,6 @@
       <c r="Q11"/>
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B12" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H12" s="26"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -5222,7 +5180,7 @@
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1">
       <c r="B13" s="33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
@@ -5231,7 +5189,7 @@
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33">
-        <f t="shared" si="0"/>
+        <f>1/8</f>
         <v>0.125</v>
       </c>
       <c r="H13" s="33"/>
@@ -5247,7 +5205,7 @@
     </row>
     <row r="14" spans="2:17" ht="15.75" customHeight="1">
       <c r="B14" s="26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
@@ -5256,7 +5214,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G14:G20" si="0">1/8</f>
         <v>0.125</v>
       </c>
       <c r="H14" s="26"/>
@@ -5272,7 +5230,7 @@
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1">
       <c r="B15" s="33" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
@@ -5295,21 +5253,21 @@
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
+    <row r="16" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B16" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="26"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -5321,13 +5279,20 @@
       <c r="Q16"/>
     </row>
     <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
+      <c r="B17" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H17" s="33"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -5339,13 +5304,20 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
+      <c r="B18" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H18" s="26"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -5357,13 +5329,20 @@
       <c r="Q18"/>
     </row>
     <row r="19" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
+      <c r="B19" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H19" s="33"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -5374,14 +5353,21 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
+    <row r="20" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B20" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H20" s="27"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2022-2023\TIMES_IERP_SIMPLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/TIMES_FULL_STUDENTS_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E86238C-CF78-4F8F-A8A1-D5AC4E1AB996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C5C1B3F9-AACD-40A5-8C6C-E92F824D1764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DEAE686-A199-4D91-9804-D3D2C131AD86}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5270" yWindow="1330" windowWidth="28800" windowHeight="15370" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Interpol_Extrapol_Defaults" sheetId="14" r:id="rId3"/>
     <sheet name="Constants" sheetId="20" r:id="rId4"/>
     <sheet name="Defaults" sheetId="21" r:id="rId5"/>
+    <sheet name="Reporting" sheetId="23" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -47,7 +48,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="388">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -88,21 +89,12 @@
     <t>DayNite</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>PL</t>
   </si>
   <si>
-    <t>* Globalne ustawienia okresów i lat milowych</t>
-  </si>
-  <si>
     <t>~StartYear</t>
   </si>
   <si>
-    <t>Deact~DefaultYear</t>
-  </si>
-  <si>
     <t>~TimePeriods</t>
   </si>
   <si>
@@ -181,15 +173,21 @@
     <t>Discount</t>
   </si>
   <si>
+    <t>COM_PEAK</t>
+  </si>
+  <si>
+    <t>ELE_WN, ELE_SN, CIEP_WT</t>
+  </si>
+  <si>
+    <t>COM_PKRSV</t>
+  </si>
+  <si>
+    <t>ELE_WN, ELE_SN</t>
+  </si>
+  <si>
     <t>YRFR</t>
   </si>
   <si>
-    <t>* Waluty</t>
-  </si>
-  <si>
-    <t>* Domyślne jednostki</t>
-  </si>
-  <si>
     <t>~Currencies</t>
   </si>
   <si>
@@ -247,9 +245,6 @@
     <t>Commodity_Unit</t>
   </si>
   <si>
-    <t>* Konwersja jednostek w wynikach</t>
-  </si>
-  <si>
     <t>from_unit</t>
   </si>
   <si>
@@ -322,88 +317,919 @@
     <t>Cents per Kwh</t>
   </si>
   <si>
-    <t>Twh</t>
-  </si>
-  <si>
-    <t>Meuro</t>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>1MO1</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>1MO2</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>1MO3</t>
+  </si>
+  <si>
+    <t>4W</t>
+  </si>
+  <si>
+    <t>1MO4</t>
+  </si>
+  <si>
+    <t>1MO5</t>
+  </si>
+  <si>
+    <t>1MO6</t>
+  </si>
+  <si>
+    <t>1MO7</t>
+  </si>
+  <si>
+    <t>1MO8</t>
+  </si>
+  <si>
+    <t>2TU1</t>
+  </si>
+  <si>
+    <t>2TU2</t>
+  </si>
+  <si>
+    <t>2TU3</t>
+  </si>
+  <si>
+    <t>2TU4</t>
+  </si>
+  <si>
+    <t>2TU5</t>
+  </si>
+  <si>
+    <t>2TU6</t>
+  </si>
+  <si>
+    <t>2TU7</t>
+  </si>
+  <si>
+    <t>2TU8</t>
+  </si>
+  <si>
+    <t>3WE1</t>
+  </si>
+  <si>
+    <t>3WE2</t>
+  </si>
+  <si>
+    <t>3WE3</t>
+  </si>
+  <si>
+    <t>3WE4</t>
+  </si>
+  <si>
+    <t>3WE5</t>
+  </si>
+  <si>
+    <t>3WE6</t>
+  </si>
+  <si>
+    <t>3WE7</t>
+  </si>
+  <si>
+    <t>3WE8</t>
+  </si>
+  <si>
+    <t>4TH1</t>
+  </si>
+  <si>
+    <t>4TH2</t>
+  </si>
+  <si>
+    <t>4TH3</t>
+  </si>
+  <si>
+    <t>4TH4</t>
+  </si>
+  <si>
+    <t>4TH5</t>
+  </si>
+  <si>
+    <t>4TH6</t>
+  </si>
+  <si>
+    <t>4TH7</t>
+  </si>
+  <si>
+    <t>4TH8</t>
+  </si>
+  <si>
+    <t>5FR1</t>
+  </si>
+  <si>
+    <t>5FR2</t>
+  </si>
+  <si>
+    <t>5FR3</t>
+  </si>
+  <si>
+    <t>5FR4</t>
+  </si>
+  <si>
+    <t>5FR5</t>
+  </si>
+  <si>
+    <t>5FR6</t>
+  </si>
+  <si>
+    <t>5FR7</t>
+  </si>
+  <si>
+    <t>5FR8</t>
+  </si>
+  <si>
+    <t>6SA1</t>
+  </si>
+  <si>
+    <t>6SA2</t>
+  </si>
+  <si>
+    <t>6SA3</t>
+  </si>
+  <si>
+    <t>6SA4</t>
+  </si>
+  <si>
+    <t>6SA5</t>
+  </si>
+  <si>
+    <t>6SA6</t>
+  </si>
+  <si>
+    <t>6SA7</t>
+  </si>
+  <si>
+    <t>6SA8</t>
+  </si>
+  <si>
+    <t>7SU1</t>
+  </si>
+  <si>
+    <t>7SU2</t>
+  </si>
+  <si>
+    <t>7SU3</t>
+  </si>
+  <si>
+    <t>7SU4</t>
+  </si>
+  <si>
+    <t>7SU5</t>
+  </si>
+  <si>
+    <t>7SU6</t>
+  </si>
+  <si>
+    <t>7SU7</t>
+  </si>
+  <si>
+    <t>7SU8</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Start Year</t>
+  </si>
+  <si>
+    <t>Active period definition</t>
+  </si>
+  <si>
+    <t>Period definition</t>
+  </si>
+  <si>
+    <t>~TFM_MIG</t>
+  </si>
+  <si>
+    <t>Dummy Import Prices</t>
+  </si>
+  <si>
+    <t>Global interpolation settings</t>
+  </si>
+  <si>
+    <t>1R1MO1</t>
+  </si>
+  <si>
+    <t>1R1MO2</t>
+  </si>
+  <si>
+    <t>1R1MO3</t>
+  </si>
+  <si>
+    <t>1R1MO4</t>
+  </si>
+  <si>
+    <t>1R1MO5</t>
+  </si>
+  <si>
+    <t>1R1MO6</t>
+  </si>
+  <si>
+    <t>1R1MO7</t>
+  </si>
+  <si>
+    <t>1R1MO8</t>
+  </si>
+  <si>
+    <t>1R2TU1</t>
+  </si>
+  <si>
+    <t>1R2TU2</t>
+  </si>
+  <si>
+    <t>1R2TU3</t>
+  </si>
+  <si>
+    <t>1R2TU4</t>
+  </si>
+  <si>
+    <t>1R2TU5</t>
+  </si>
+  <si>
+    <t>1R2TU6</t>
+  </si>
+  <si>
+    <t>1R2TU7</t>
+  </si>
+  <si>
+    <t>1R2TU8</t>
+  </si>
+  <si>
+    <t>1R3WE1</t>
+  </si>
+  <si>
+    <t>1R3WE2</t>
+  </si>
+  <si>
+    <t>1R3WE3</t>
+  </si>
+  <si>
+    <t>1R3WE4</t>
+  </si>
+  <si>
+    <t>1R3WE5</t>
+  </si>
+  <si>
+    <t>1R3WE6</t>
+  </si>
+  <si>
+    <t>1R3WE7</t>
+  </si>
+  <si>
+    <t>1R3WE8</t>
+  </si>
+  <si>
+    <t>1R4TH1</t>
+  </si>
+  <si>
+    <t>1R4TH2</t>
+  </si>
+  <si>
+    <t>1R4TH3</t>
+  </si>
+  <si>
+    <t>1R4TH4</t>
+  </si>
+  <si>
+    <t>1R4TH5</t>
+  </si>
+  <si>
+    <t>1R4TH6</t>
+  </si>
+  <si>
+    <t>1R4TH7</t>
+  </si>
+  <si>
+    <t>1R4TH8</t>
+  </si>
+  <si>
+    <t>1R5FR1</t>
+  </si>
+  <si>
+    <t>1R5FR2</t>
+  </si>
+  <si>
+    <t>1R5FR3</t>
+  </si>
+  <si>
+    <t>1R5FR4</t>
+  </si>
+  <si>
+    <t>1R5FR5</t>
+  </si>
+  <si>
+    <t>1R5FR6</t>
+  </si>
+  <si>
+    <t>1R5FR7</t>
+  </si>
+  <si>
+    <t>1R5FR8</t>
+  </si>
+  <si>
+    <t>1R6SA1</t>
+  </si>
+  <si>
+    <t>1R6SA2</t>
+  </si>
+  <si>
+    <t>1R6SA3</t>
+  </si>
+  <si>
+    <t>1R6SA4</t>
+  </si>
+  <si>
+    <t>1R6SA5</t>
+  </si>
+  <si>
+    <t>1R6SA6</t>
+  </si>
+  <si>
+    <t>1R6SA7</t>
+  </si>
+  <si>
+    <t>1R6SA8</t>
+  </si>
+  <si>
+    <t>1R7SU1</t>
+  </si>
+  <si>
+    <t>1R7SU2</t>
+  </si>
+  <si>
+    <t>1R7SU3</t>
+  </si>
+  <si>
+    <t>1R7SU4</t>
+  </si>
+  <si>
+    <t>1R7SU5</t>
+  </si>
+  <si>
+    <t>1R7SU6</t>
+  </si>
+  <si>
+    <t>1R7SU7</t>
+  </si>
+  <si>
+    <t>1R7SU8</t>
+  </si>
+  <si>
+    <t>2S1MO1</t>
+  </si>
+  <si>
+    <t>2S1MO2</t>
+  </si>
+  <si>
+    <t>2S1MO3</t>
+  </si>
+  <si>
+    <t>2S1MO4</t>
+  </si>
+  <si>
+    <t>2S1MO5</t>
+  </si>
+  <si>
+    <t>2S1MO6</t>
+  </si>
+  <si>
+    <t>2S1MO7</t>
+  </si>
+  <si>
+    <t>2S1MO8</t>
+  </si>
+  <si>
+    <t>2S2TU1</t>
+  </si>
+  <si>
+    <t>2S2TU2</t>
+  </si>
+  <si>
+    <t>2S2TU3</t>
+  </si>
+  <si>
+    <t>2S2TU4</t>
+  </si>
+  <si>
+    <t>2S2TU5</t>
+  </si>
+  <si>
+    <t>2S2TU6</t>
+  </si>
+  <si>
+    <t>2S2TU7</t>
+  </si>
+  <si>
+    <t>2S2TU8</t>
+  </si>
+  <si>
+    <t>2S3WE1</t>
+  </si>
+  <si>
+    <t>2S3WE2</t>
+  </si>
+  <si>
+    <t>2S3WE3</t>
+  </si>
+  <si>
+    <t>2S3WE4</t>
+  </si>
+  <si>
+    <t>2S3WE5</t>
+  </si>
+  <si>
+    <t>2S3WE6</t>
+  </si>
+  <si>
+    <t>2S3WE7</t>
+  </si>
+  <si>
+    <t>2S3WE8</t>
+  </si>
+  <si>
+    <t>2S4TH1</t>
+  </si>
+  <si>
+    <t>2S4TH2</t>
+  </si>
+  <si>
+    <t>2S4TH3</t>
+  </si>
+  <si>
+    <t>2S4TH4</t>
+  </si>
+  <si>
+    <t>2S4TH5</t>
+  </si>
+  <si>
+    <t>2S4TH6</t>
+  </si>
+  <si>
+    <t>2S4TH7</t>
+  </si>
+  <si>
+    <t>2S4TH8</t>
+  </si>
+  <si>
+    <t>2S5FR1</t>
+  </si>
+  <si>
+    <t>2S5FR2</t>
+  </si>
+  <si>
+    <t>2S5FR3</t>
+  </si>
+  <si>
+    <t>2S5FR4</t>
+  </si>
+  <si>
+    <t>2S5FR5</t>
+  </si>
+  <si>
+    <t>2S5FR6</t>
+  </si>
+  <si>
+    <t>2S5FR7</t>
+  </si>
+  <si>
+    <t>2S5FR8</t>
+  </si>
+  <si>
+    <t>2S6SA1</t>
+  </si>
+  <si>
+    <t>2S6SA2</t>
+  </si>
+  <si>
+    <t>2S6SA3</t>
+  </si>
+  <si>
+    <t>2S6SA4</t>
+  </si>
+  <si>
+    <t>2S6SA5</t>
+  </si>
+  <si>
+    <t>2S6SA6</t>
+  </si>
+  <si>
+    <t>2S6SA7</t>
+  </si>
+  <si>
+    <t>2S6SA8</t>
+  </si>
+  <si>
+    <t>2S7SU1</t>
+  </si>
+  <si>
+    <t>2S7SU2</t>
+  </si>
+  <si>
+    <t>2S7SU3</t>
+  </si>
+  <si>
+    <t>2S7SU4</t>
+  </si>
+  <si>
+    <t>2S7SU5</t>
+  </si>
+  <si>
+    <t>2S7SU6</t>
+  </si>
+  <si>
+    <t>2S7SU7</t>
+  </si>
+  <si>
+    <t>2S7SU8</t>
+  </si>
+  <si>
+    <t>3F1MO1</t>
+  </si>
+  <si>
+    <t>3F1MO2</t>
+  </si>
+  <si>
+    <t>3F1MO3</t>
+  </si>
+  <si>
+    <t>3F1MO4</t>
+  </si>
+  <si>
+    <t>3F1MO5</t>
+  </si>
+  <si>
+    <t>3F1MO6</t>
+  </si>
+  <si>
+    <t>3F1MO7</t>
+  </si>
+  <si>
+    <t>3F1MO8</t>
+  </si>
+  <si>
+    <t>3F2TU1</t>
+  </si>
+  <si>
+    <t>3F2TU2</t>
+  </si>
+  <si>
+    <t>3F2TU3</t>
+  </si>
+  <si>
+    <t>3F2TU4</t>
+  </si>
+  <si>
+    <t>3F2TU5</t>
+  </si>
+  <si>
+    <t>3F2TU6</t>
+  </si>
+  <si>
+    <t>3F2TU7</t>
+  </si>
+  <si>
+    <t>3F2TU8</t>
+  </si>
+  <si>
+    <t>3F3WE1</t>
+  </si>
+  <si>
+    <t>3F3WE2</t>
+  </si>
+  <si>
+    <t>3F3WE3</t>
+  </si>
+  <si>
+    <t>3F3WE4</t>
+  </si>
+  <si>
+    <t>3F3WE5</t>
+  </si>
+  <si>
+    <t>3F3WE6</t>
+  </si>
+  <si>
+    <t>3F3WE7</t>
+  </si>
+  <si>
+    <t>3F3WE8</t>
+  </si>
+  <si>
+    <t>3F4TH1</t>
+  </si>
+  <si>
+    <t>3F4TH2</t>
+  </si>
+  <si>
+    <t>3F4TH3</t>
+  </si>
+  <si>
+    <t>3F4TH4</t>
+  </si>
+  <si>
+    <t>3F4TH5</t>
+  </si>
+  <si>
+    <t>3F4TH6</t>
+  </si>
+  <si>
+    <t>3F4TH7</t>
+  </si>
+  <si>
+    <t>3F4TH8</t>
+  </si>
+  <si>
+    <t>3F5FR1</t>
+  </si>
+  <si>
+    <t>3F5FR2</t>
+  </si>
+  <si>
+    <t>3F5FR3</t>
+  </si>
+  <si>
+    <t>3F5FR4</t>
+  </si>
+  <si>
+    <t>3F5FR5</t>
+  </si>
+  <si>
+    <t>3F5FR6</t>
+  </si>
+  <si>
+    <t>3F5FR7</t>
+  </si>
+  <si>
+    <t>3F5FR8</t>
+  </si>
+  <si>
+    <t>3F6SA1</t>
+  </si>
+  <si>
+    <t>3F6SA2</t>
+  </si>
+  <si>
+    <t>3F6SA3</t>
+  </si>
+  <si>
+    <t>3F6SA4</t>
+  </si>
+  <si>
+    <t>3F6SA5</t>
+  </si>
+  <si>
+    <t>3F6SA6</t>
+  </si>
+  <si>
+    <t>3F6SA7</t>
+  </si>
+  <si>
+    <t>3F6SA8</t>
+  </si>
+  <si>
+    <t>3F7SU1</t>
+  </si>
+  <si>
+    <t>3F7SU2</t>
+  </si>
+  <si>
+    <t>3F7SU3</t>
+  </si>
+  <si>
+    <t>3F7SU4</t>
+  </si>
+  <si>
+    <t>3F7SU5</t>
+  </si>
+  <si>
+    <t>3F7SU6</t>
+  </si>
+  <si>
+    <t>3F7SU7</t>
+  </si>
+  <si>
+    <t>3F7SU8</t>
+  </si>
+  <si>
+    <t>4W1MO1</t>
+  </si>
+  <si>
+    <t>4W1MO2</t>
+  </si>
+  <si>
+    <t>4W1MO3</t>
+  </si>
+  <si>
+    <t>4W1MO4</t>
+  </si>
+  <si>
+    <t>4W1MO5</t>
+  </si>
+  <si>
+    <t>4W1MO6</t>
+  </si>
+  <si>
+    <t>4W1MO7</t>
+  </si>
+  <si>
+    <t>4W1MO8</t>
+  </si>
+  <si>
+    <t>4W2TU1</t>
+  </si>
+  <si>
+    <t>4W2TU2</t>
+  </si>
+  <si>
+    <t>4W2TU3</t>
+  </si>
+  <si>
+    <t>4W2TU4</t>
+  </si>
+  <si>
+    <t>4W2TU5</t>
+  </si>
+  <si>
+    <t>4W2TU6</t>
+  </si>
+  <si>
+    <t>4W2TU7</t>
+  </si>
+  <si>
+    <t>4W2TU8</t>
+  </si>
+  <si>
+    <t>4W3WE1</t>
+  </si>
+  <si>
+    <t>4W3WE2</t>
+  </si>
+  <si>
+    <t>4W3WE3</t>
+  </si>
+  <si>
+    <t>4W3WE4</t>
+  </si>
+  <si>
+    <t>4W3WE5</t>
+  </si>
+  <si>
+    <t>4W3WE6</t>
+  </si>
+  <si>
+    <t>4W3WE7</t>
+  </si>
+  <si>
+    <t>4W3WE8</t>
+  </si>
+  <si>
+    <t>4W4TH1</t>
+  </si>
+  <si>
+    <t>4W4TH2</t>
+  </si>
+  <si>
+    <t>4W4TH3</t>
+  </si>
+  <si>
+    <t>4W4TH4</t>
+  </si>
+  <si>
+    <t>4W4TH5</t>
+  </si>
+  <si>
+    <t>4W4TH6</t>
+  </si>
+  <si>
+    <t>4W4TH7</t>
+  </si>
+  <si>
+    <t>4W4TH8</t>
+  </si>
+  <si>
+    <t>4W5FR1</t>
+  </si>
+  <si>
+    <t>4W5FR2</t>
+  </si>
+  <si>
+    <t>4W5FR3</t>
+  </si>
+  <si>
+    <t>4W5FR4</t>
+  </si>
+  <si>
+    <t>4W5FR5</t>
+  </si>
+  <si>
+    <t>4W5FR6</t>
+  </si>
+  <si>
+    <t>4W5FR7</t>
+  </si>
+  <si>
+    <t>4W5FR8</t>
+  </si>
+  <si>
+    <t>4W6SA1</t>
+  </si>
+  <si>
+    <t>4W6SA2</t>
+  </si>
+  <si>
+    <t>4W6SA3</t>
+  </si>
+  <si>
+    <t>4W6SA4</t>
+  </si>
+  <si>
+    <t>4W6SA5</t>
+  </si>
+  <si>
+    <t>4W6SA6</t>
+  </si>
+  <si>
+    <t>4W6SA7</t>
+  </si>
+  <si>
+    <t>4W6SA8</t>
+  </si>
+  <si>
+    <t>4W7SU1</t>
+  </si>
+  <si>
+    <t>4W7SU2</t>
+  </si>
+  <si>
+    <t>4W7SU3</t>
+  </si>
+  <si>
+    <t>4W7SU4</t>
+  </si>
+  <si>
+    <t>4W7SU5</t>
+  </si>
+  <si>
+    <t>4W7SU6</t>
+  </si>
+  <si>
+    <t>4W7SU7</t>
+  </si>
+  <si>
+    <t>4W7SU8</t>
+  </si>
+  <si>
+    <t>G_CYCLE</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
   </si>
   <si>
     <t>~UnitConversion</t>
   </si>
   <si>
-    <t>1S</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
-    <t>1W</t>
-  </si>
-  <si>
-    <t>2W</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Timeslices</t>
-  </si>
-  <si>
-    <t>DayNIte</t>
-  </si>
-  <si>
-    <t>Timeslice Name</t>
-  </si>
-  <si>
-    <t>Start Year</t>
-  </si>
-  <si>
-    <t>Default Year if first perion is longer than 1 year</t>
-  </si>
-  <si>
-    <t>Period definition</t>
-  </si>
-  <si>
-    <t>Active period definition</t>
-  </si>
-  <si>
-    <t>~TFM_MIG</t>
-  </si>
-  <si>
-    <t>Global inter / extra polation options</t>
-  </si>
-  <si>
-    <t>Dummy import prices</t>
-  </si>
-  <si>
-    <t>1S1W1D</t>
-  </si>
-  <si>
-    <t>1S1W2D</t>
-  </si>
-  <si>
-    <t>1S2W1D</t>
-  </si>
-  <si>
-    <t>1S2W2D</t>
-  </si>
-  <si>
-    <t>2S1W1D</t>
-  </si>
-  <si>
-    <t>2S1W2D</t>
-  </si>
-  <si>
-    <t>2S2W1D</t>
-  </si>
-  <si>
-    <t>2S2W2D</t>
+    <t>* Currencies</t>
+  </si>
+  <si>
+    <t>* Default Units</t>
+  </si>
+  <si>
+    <t>* Unit Conversion</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>RPT_OPT</t>
+  </si>
+  <si>
+    <t>FLO~3</t>
+  </si>
+  <si>
+    <t>ModelPL</t>
+  </si>
+  <si>
+    <t>ModelNL</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
@@ -431,7 +1257,7 @@
     <numFmt numFmtId="181" formatCode="yyyy"/>
     <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="86">
+  <fonts count="87">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -952,13 +1778,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
@@ -969,8 +1788,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,8 +2048,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC1"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1487,16 +2338,25 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="723">
+  <cellStyleXfs count="726">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2487,8 +3347,11 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2505,32 +3368,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" xfId="456" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="42" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" xfId="456" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="44" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="45" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="44" borderId="20" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="45" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="724" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="723" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="487" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" xfId="724" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="723" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" xfId="487" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="21" xfId="723" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="21" xfId="724" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="23" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="23" xfId="724" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="481" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="724" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="724"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="478"/>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="22" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="47" borderId="19" xfId="725" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="723">
+  <cellStyles count="726">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Akzent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Akzent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2988,6 +3871,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
     <cellStyle name="Normal 10" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Normal 10 2" xfId="724" xr:uid="{EB0C2ED4-4687-4FED-8497-A80B55395A75}"/>
     <cellStyle name="Normal 14" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
     <cellStyle name="Normal 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
     <cellStyle name="Normal 20" xfId="459" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
@@ -3006,6 +3890,7 @@
     <cellStyle name="Normal GHG Textfiels Bold" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
     <cellStyle name="Normal GHG-Shade" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Normal_Constants 2" xfId="723" xr:uid="{C6AA90A5-1043-4AB8-B229-DB93742915B6}"/>
     <cellStyle name="Normale_B2020" xfId="475" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
     <cellStyle name="Normalny 10" xfId="476" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
     <cellStyle name="Normalny 10 2" xfId="477" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
@@ -3020,6 +3905,7 @@
     <cellStyle name="Normalny 15" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
     <cellStyle name="Normalny 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
     <cellStyle name="Normalny 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Normalny 2 3" xfId="725" xr:uid="{1B5E8EBA-37B9-4148-9C3E-C42248866516}"/>
     <cellStyle name="Normalny 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
     <cellStyle name="Normalny 4" xfId="490" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
     <cellStyle name="Normalny 5" xfId="491" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
@@ -3268,6 +4154,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>143616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3540432C-E024-A605-6743-2188978ECD86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371976" y="864091"/>
+          <a:ext cx="6096000" cy="3775325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3335,7 +4270,13 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>^FI_ST: TCH, PRC</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
@@ -3684,230 +4625,836 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B2:N63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="2:8" ht="18">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:14" ht="15.5">
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:14" ht="17.5">
+      <c r="B4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" ht="13">
+      <c r="B5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B8" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="28"/>
+      <c r="N8" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="49" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="N9" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" customHeight="1">
+      <c r="E10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="N10" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" customHeight="1">
+      <c r="E11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="N11" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" customHeight="1">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="N12" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" customHeight="1">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="N13" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" customHeight="1">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="N14" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" customHeight="1">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="N15" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" customHeight="1">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="E7" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1"/>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1">
-      <c r="E10" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="30" t="s">
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="N16" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="N17" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1">
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" t="str">
-        <f>E11&amp;F11&amp;G11</f>
-        <v>1S1W1D</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
-      <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" ref="H12:H18" si="0">E12&amp;F12&amp;G12</f>
-        <v>1S1W2D</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>1S2W1D</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="E14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>1S2W2D</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>2S1W1D</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>2S1W2D</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>2S2W1D</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>2S2W2D</v>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="N18" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="N19" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="N20" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="N21" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="N22" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="N23" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="N24" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="N25" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="N26" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="N27" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="N28" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="N29" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="N30" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="N31" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="N32" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="N33" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="N34" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="N35" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="N36" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="N37" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="N38" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="N39" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="N40" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="N41" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="N42" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="N43" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="N44" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="N45" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="N46" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="N47" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="N48" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="N49" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="N50" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="N51" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="N52" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="N53" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="N54" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="N55" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="N56" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="N57" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="N58" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="N59" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="N60" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="N61" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="5:14" ht="15.75" customHeight="1">
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="N62" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="5:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="27"/>
+      <c r="N63" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3921,87 +5468,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:G30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:7" ht="15.5">
+      <c r="B2" s="25"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.5">
+      <c r="B4" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.5">
+      <c r="B13" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="15">
-      <c r="B4" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B6" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+    </row>
+    <row r="16" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B7">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15">
-      <c r="B13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
       <c r="B18" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
@@ -4010,18 +5544,31 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B20" s="19"/>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1"/>
+      <c r="B20" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" customHeight="1"/>
+      <c r="B22" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B25" s="15"/>
+    <row r="25" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:4" ht="13" thickBot="1">
+      <c r="B27" s="15"/>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="11"/>
@@ -4040,238 +5587,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="12.75" customHeight="1"/>
-    <row r="2" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="3" t="s">
+    <row r="1" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B2" s="25"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B9" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1"/>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B7" t="s">
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>5</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="2:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="B12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:11" ht="12.75" customHeight="1">
+      <c r="B13" s="4"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:11" ht="12.75" customHeight="1"/>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20" t="s">
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="E17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>5</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" ht="12.75" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" ht="12.75" customHeight="1"/>
-    <row r="13" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B13" s="1" t="s">
+      <c r="C18">
+        <v>5555</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B15" t="s">
+    </row>
+    <row r="19" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="21">
+        <v>9999</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
-        <v>2222</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="21">
-        <v>8888</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:Q47"/>
+  <dimension ref="B3:Q233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="5" max="5" width="5.453125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.81640625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="18">
+    <row r="3" spans="2:17" ht="17.5">
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" customHeight="1">
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E7" s="26"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="H7" s="31"/>
     </row>
@@ -4279,9 +5858,9 @@
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="27"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32">
         <v>0.08</v>
@@ -4289,762 +5868,3406 @@
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33">
-        <f>1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G9" s="42">
+        <v>52.142857142857146</v>
+      </c>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B10" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26">
-        <f t="shared" ref="G10:G16" si="0">1/8</f>
-        <v>0.125</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="B10" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B11" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>38</v>
+      <c r="B11" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>4.5682485322896304E-3</v>
       </c>
       <c r="H11" s="33"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B12" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
+      <c r="B12" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B13" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33" t="s">
-        <v>38</v>
+      <c r="B13" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>4.5682485322896304E-3</v>
       </c>
       <c r="H13" s="33"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B14" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="B14" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B15" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
-        <v>38</v>
+      <c r="B15" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>4.5682485322896304E-3</v>
       </c>
       <c r="H15" s="33"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B16" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-    </row>
-    <row r="25" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-    </row>
-    <row r="34" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-    </row>
-    <row r="35" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-    </row>
-    <row r="36" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-    </row>
-    <row r="37" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-    </row>
-    <row r="38" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-    </row>
-    <row r="39" spans="2:17">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-    </row>
-    <row r="40" spans="2:17">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-    </row>
-    <row r="41" spans="2:17">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-    </row>
-    <row r="42" spans="2:17">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-    </row>
-    <row r="43" spans="2:17">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-    </row>
-    <row r="45" spans="2:17">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-    </row>
-    <row r="46" spans="2:17">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-    </row>
-    <row r="47" spans="2:17">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B16" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B17" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B18" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B19" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B20" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B21" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B22" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B23" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B24" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B25" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B26" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B27" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B28" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B29" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B30" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B31" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B32" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B33" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B34" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B35" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B36" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B37" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H37" s="33"/>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B38" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B39" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B40" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B41" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B42" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B43" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B44" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="36"/>
+      <c r="D44" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H44" s="36"/>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B45" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H45" s="33"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B46" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B47" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H47" s="33"/>
+    </row>
+    <row r="48" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B48" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B49" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B50" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B51" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B52" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="53" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B53" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B54" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B55" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B56" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B57" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H57" s="33"/>
+    </row>
+    <row r="58" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B58" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H58" s="36"/>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B59" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B60" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H60" s="36"/>
+    </row>
+    <row r="61" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B61" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="D61" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B62" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H62" s="36"/>
+    </row>
+    <row r="63" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B63" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="33"/>
+      <c r="D63" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B64" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H64" s="36"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B65" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C65" s="33"/>
+      <c r="D65" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33">
+        <v>4.5682485322896304E-3</v>
+      </c>
+      <c r="H65" s="33"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B66" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H66" s="36"/>
+    </row>
+    <row r="67" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B67" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="33"/>
+      <c r="D67" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H67" s="33"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B68" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H68" s="36"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B69" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="33"/>
+      <c r="D69" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H69" s="33"/>
+    </row>
+    <row r="70" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B70" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H70" s="36"/>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B71" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="33"/>
+      <c r="D71" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H71" s="33"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B72" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H72" s="36"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B73" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="33"/>
+      <c r="D73" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H73" s="33"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B74" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H74" s="36"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B75" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="33"/>
+      <c r="D75" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H75" s="33"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B76" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H76" s="36"/>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B77" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="33"/>
+      <c r="D77" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H77" s="33"/>
+    </row>
+    <row r="78" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B78" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H78" s="36"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B79" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" s="33"/>
+      <c r="D79" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H79" s="33"/>
+    </row>
+    <row r="80" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B80" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H80" s="36"/>
+    </row>
+    <row r="81" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B81" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="33"/>
+      <c r="D81" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H81" s="33"/>
+    </row>
+    <row r="82" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B82" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H82" s="36"/>
+    </row>
+    <row r="83" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B83" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="33"/>
+      <c r="D83" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H83" s="33"/>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B84" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H84" s="36"/>
+    </row>
+    <row r="85" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B85" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="33"/>
+      <c r="D85" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H85" s="33"/>
+    </row>
+    <row r="86" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B86" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H86" s="36"/>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B87" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" s="33"/>
+      <c r="D87" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H87" s="33"/>
+    </row>
+    <row r="88" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B88" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H88" s="36"/>
+    </row>
+    <row r="89" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B89" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="33"/>
+      <c r="D89" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H89" s="33"/>
+    </row>
+    <row r="90" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B90" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H90" s="36"/>
+    </row>
+    <row r="91" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B91" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H91" s="33"/>
+    </row>
+    <row r="92" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B92" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H92" s="36"/>
+    </row>
+    <row r="93" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B93" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="33"/>
+      <c r="D93" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H93" s="33"/>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B94" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H94" s="36"/>
+    </row>
+    <row r="95" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B95" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="33"/>
+      <c r="D95" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H95" s="33"/>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B96" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H96" s="36"/>
+    </row>
+    <row r="97" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B97" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="33"/>
+      <c r="D97" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H97" s="33"/>
+    </row>
+    <row r="98" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B98" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H98" s="36"/>
+    </row>
+    <row r="99" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B99" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" s="33"/>
+      <c r="D99" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H99" s="33"/>
+    </row>
+    <row r="100" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B100" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H100" s="36"/>
+    </row>
+    <row r="101" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B101" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="33"/>
+      <c r="D101" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H101" s="33"/>
+    </row>
+    <row r="102" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B102" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="36"/>
+      <c r="D102" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H102" s="36"/>
+    </row>
+    <row r="103" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B103" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="33"/>
+      <c r="D103" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H103" s="33"/>
+    </row>
+    <row r="104" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B104" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" s="36"/>
+      <c r="D104" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H104" s="36"/>
+    </row>
+    <row r="105" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B105" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" s="33"/>
+      <c r="D105" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H105" s="33"/>
+    </row>
+    <row r="106" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B106" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="36"/>
+      <c r="D106" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H106" s="36"/>
+    </row>
+    <row r="107" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B107" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="33"/>
+      <c r="D107" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H107" s="33"/>
+    </row>
+    <row r="108" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B108" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" s="36"/>
+      <c r="D108" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H108" s="36"/>
+    </row>
+    <row r="109" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B109" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="33"/>
+      <c r="D109" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H109" s="33"/>
+    </row>
+    <row r="110" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B110" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C110" s="36"/>
+      <c r="D110" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H110" s="36"/>
+    </row>
+    <row r="111" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B111" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" s="33"/>
+      <c r="D111" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H111" s="33"/>
+    </row>
+    <row r="112" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B112" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="36"/>
+      <c r="D112" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H112" s="36"/>
+    </row>
+    <row r="113" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B113" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" s="33"/>
+      <c r="D113" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H113" s="33"/>
+    </row>
+    <row r="114" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B114" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="36"/>
+      <c r="D114" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H114" s="36"/>
+    </row>
+    <row r="115" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B115" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="33"/>
+      <c r="D115" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H115" s="33"/>
+    </row>
+    <row r="116" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B116" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="36"/>
+      <c r="D116" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H116" s="36"/>
+    </row>
+    <row r="117" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B117" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" s="33"/>
+      <c r="D117" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H117" s="33"/>
+    </row>
+    <row r="118" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B118" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118" s="36"/>
+      <c r="D118" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H118" s="36"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B119" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" s="33"/>
+      <c r="D119" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H119" s="33"/>
+    </row>
+    <row r="120" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B120" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="36"/>
+      <c r="D120" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H120" s="36"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B121" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="33"/>
+      <c r="D121" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33">
+        <v>4.5315557729941301E-3</v>
+      </c>
+      <c r="H121" s="33"/>
+    </row>
+    <row r="122" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B122" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="36"/>
+      <c r="D122" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H122" s="36"/>
+    </row>
+    <row r="123" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B123" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="33"/>
+      <c r="D123" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H123" s="33"/>
+    </row>
+    <row r="124" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B124" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" s="36"/>
+      <c r="D124" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H124" s="36"/>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B125" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" s="33"/>
+      <c r="D125" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H125" s="33"/>
+    </row>
+    <row r="126" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B126" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="36"/>
+      <c r="D126" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H126" s="36"/>
+    </row>
+    <row r="127" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B127" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" s="33"/>
+      <c r="D127" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H127" s="33"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B128" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" s="36"/>
+      <c r="D128" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H128" s="36"/>
+    </row>
+    <row r="129" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B129" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" s="33"/>
+      <c r="D129" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H129" s="33"/>
+    </row>
+    <row r="130" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B130" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H130" s="36"/>
+    </row>
+    <row r="131" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B131" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="33"/>
+      <c r="D131" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H131" s="33"/>
+    </row>
+    <row r="132" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B132" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C132" s="36"/>
+      <c r="D132" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H132" s="36"/>
+    </row>
+    <row r="133" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B133" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" s="33"/>
+      <c r="D133" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H133" s="33"/>
+    </row>
+    <row r="134" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B134" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" s="36"/>
+      <c r="D134" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H134" s="36"/>
+    </row>
+    <row r="135" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B135" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="33"/>
+      <c r="D135" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H135" s="33"/>
+    </row>
+    <row r="136" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B136" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="36"/>
+      <c r="D136" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H136" s="36"/>
+    </row>
+    <row r="137" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B137" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="33"/>
+      <c r="D137" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H137" s="33"/>
+    </row>
+    <row r="138" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B138" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" s="36"/>
+      <c r="D138" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H138" s="36"/>
+    </row>
+    <row r="139" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B139" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="33"/>
+      <c r="D139" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H139" s="33"/>
+    </row>
+    <row r="140" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B140" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" s="36"/>
+      <c r="D140" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H140" s="36"/>
+    </row>
+    <row r="141" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B141" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="33"/>
+      <c r="D141" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H141" s="33"/>
+    </row>
+    <row r="142" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B142" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="36"/>
+      <c r="D142" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H142" s="36"/>
+    </row>
+    <row r="143" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B143" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="33"/>
+      <c r="D143" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H143" s="33"/>
+    </row>
+    <row r="144" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B144" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="36"/>
+      <c r="D144" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H144" s="36"/>
+    </row>
+    <row r="145" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B145" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="33"/>
+      <c r="D145" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H145" s="33"/>
+    </row>
+    <row r="146" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B146" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="36"/>
+      <c r="D146" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H146" s="36"/>
+    </row>
+    <row r="147" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B147" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C147" s="33"/>
+      <c r="D147" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H147" s="33"/>
+    </row>
+    <row r="148" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B148" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C148" s="36"/>
+      <c r="D148" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H148" s="36"/>
+    </row>
+    <row r="149" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B149" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" s="33"/>
+      <c r="D149" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H149" s="33"/>
+    </row>
+    <row r="150" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B150" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C150" s="36"/>
+      <c r="D150" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H150" s="36"/>
+    </row>
+    <row r="151" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B151" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" s="33"/>
+      <c r="D151" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H151" s="33"/>
+    </row>
+    <row r="152" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B152" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C152" s="36"/>
+      <c r="D152" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36"/>
+      <c r="G152" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H152" s="36"/>
+    </row>
+    <row r="153" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B153" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C153" s="33"/>
+      <c r="D153" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H153" s="33"/>
+    </row>
+    <row r="154" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B154" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C154" s="36"/>
+      <c r="D154" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H154" s="36"/>
+    </row>
+    <row r="155" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B155" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C155" s="33"/>
+      <c r="D155" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H155" s="33"/>
+    </row>
+    <row r="156" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B156" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C156" s="36"/>
+      <c r="D156" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H156" s="36"/>
+    </row>
+    <row r="157" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B157" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" s="33"/>
+      <c r="D157" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H157" s="33"/>
+    </row>
+    <row r="158" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B158" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C158" s="36"/>
+      <c r="D158" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36"/>
+      <c r="G158" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H158" s="36"/>
+    </row>
+    <row r="159" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B159" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C159" s="33"/>
+      <c r="D159" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H159" s="33"/>
+    </row>
+    <row r="160" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B160" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C160" s="36"/>
+      <c r="D160" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" s="36"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H160" s="36"/>
+    </row>
+    <row r="161" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B161" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C161" s="33"/>
+      <c r="D161" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H161" s="33"/>
+    </row>
+    <row r="162" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B162" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C162" s="36"/>
+      <c r="D162" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" s="36"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H162" s="36"/>
+    </row>
+    <row r="163" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B163" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C163" s="33"/>
+      <c r="D163" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H163" s="33"/>
+    </row>
+    <row r="164" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B164" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" s="36"/>
+      <c r="D164" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H164" s="36"/>
+    </row>
+    <row r="165" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B165" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C165" s="33"/>
+      <c r="D165" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H165" s="33"/>
+    </row>
+    <row r="166" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B166" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C166" s="36"/>
+      <c r="D166" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H166" s="36"/>
+    </row>
+    <row r="167" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B167" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="C167" s="33"/>
+      <c r="D167" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H167" s="33"/>
+    </row>
+    <row r="168" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B168" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C168" s="36"/>
+      <c r="D168" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H168" s="36"/>
+    </row>
+    <row r="169" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B169" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C169" s="33"/>
+      <c r="D169" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H169" s="33"/>
+    </row>
+    <row r="170" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B170" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C170" s="36"/>
+      <c r="D170" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H170" s="36"/>
+    </row>
+    <row r="171" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B171" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C171" s="33"/>
+      <c r="D171" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H171" s="33"/>
+    </row>
+    <row r="172" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B172" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C172" s="36"/>
+      <c r="D172" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E172" s="36"/>
+      <c r="F172" s="36"/>
+      <c r="G172" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H172" s="36"/>
+    </row>
+    <row r="173" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B173" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C173" s="33"/>
+      <c r="D173" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H173" s="33"/>
+    </row>
+    <row r="174" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B174" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C174" s="36"/>
+      <c r="D174" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H174" s="36"/>
+    </row>
+    <row r="175" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B175" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="C175" s="33"/>
+      <c r="D175" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H175" s="33"/>
+    </row>
+    <row r="176" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B176" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C176" s="36"/>
+      <c r="D176" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E176" s="36"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="36">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H176" s="36"/>
+    </row>
+    <row r="177" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B177" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="C177" s="33"/>
+      <c r="D177" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33">
+        <v>4.4031311154598797E-3</v>
+      </c>
+      <c r="H177" s="33"/>
+    </row>
+    <row r="178" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B178" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C178" s="36"/>
+      <c r="D178" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E178" s="36"/>
+      <c r="F178" s="36"/>
+      <c r="G178" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H178" s="36"/>
+    </row>
+    <row r="179" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B179" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="C179" s="33"/>
+      <c r="D179" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
+      <c r="G179" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H179" s="33"/>
+    </row>
+    <row r="180" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B180" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="C180" s="36"/>
+      <c r="D180" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E180" s="36"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H180" s="36"/>
+    </row>
+    <row r="181" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B181" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C181" s="33"/>
+      <c r="D181" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H181" s="33"/>
+    </row>
+    <row r="182" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B182" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C182" s="36"/>
+      <c r="D182" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H182" s="36"/>
+    </row>
+    <row r="183" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B183" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C183" s="33"/>
+      <c r="D183" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H183" s="33"/>
+    </row>
+    <row r="184" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B184" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C184" s="36"/>
+      <c r="D184" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E184" s="36"/>
+      <c r="F184" s="36"/>
+      <c r="G184" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H184" s="36"/>
+    </row>
+    <row r="185" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B185" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C185" s="33"/>
+      <c r="D185" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H185" s="33"/>
+    </row>
+    <row r="186" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B186" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C186" s="36"/>
+      <c r="D186" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E186" s="36"/>
+      <c r="F186" s="36"/>
+      <c r="G186" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H186" s="36"/>
+    </row>
+    <row r="187" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B187" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="C187" s="33"/>
+      <c r="D187" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H187" s="33"/>
+    </row>
+    <row r="188" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B188" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C188" s="36"/>
+      <c r="D188" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E188" s="36"/>
+      <c r="F188" s="36"/>
+      <c r="G188" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H188" s="36"/>
+    </row>
+    <row r="189" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B189" s="37" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" s="33"/>
+      <c r="D189" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H189" s="33"/>
+    </row>
+    <row r="190" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B190" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C190" s="36"/>
+      <c r="D190" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E190" s="36"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H190" s="36"/>
+    </row>
+    <row r="191" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B191" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="C191" s="33"/>
+      <c r="D191" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H191" s="33"/>
+    </row>
+    <row r="192" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B192" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C192" s="36"/>
+      <c r="D192" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H192" s="36"/>
+    </row>
+    <row r="193" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B193" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C193" s="33"/>
+      <c r="D193" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
+      <c r="G193" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H193" s="33"/>
+    </row>
+    <row r="194" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B194" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C194" s="36"/>
+      <c r="D194" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E194" s="36"/>
+      <c r="F194" s="36"/>
+      <c r="G194" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H194" s="36"/>
+    </row>
+    <row r="195" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B195" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="C195" s="33"/>
+      <c r="D195" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E195" s="33"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H195" s="33"/>
+    </row>
+    <row r="196" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B196" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C196" s="36"/>
+      <c r="D196" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E196" s="36"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H196" s="36"/>
+    </row>
+    <row r="197" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B197" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C197" s="33"/>
+      <c r="D197" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H197" s="33"/>
+    </row>
+    <row r="198" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B198" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C198" s="36"/>
+      <c r="D198" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H198" s="36"/>
+    </row>
+    <row r="199" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B199" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" s="33"/>
+      <c r="D199" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E199" s="33"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H199" s="33"/>
+    </row>
+    <row r="200" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B200" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C200" s="36"/>
+      <c r="D200" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E200" s="36"/>
+      <c r="F200" s="36"/>
+      <c r="G200" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H200" s="36"/>
+    </row>
+    <row r="201" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B201" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="C201" s="33"/>
+      <c r="D201" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H201" s="33"/>
+    </row>
+    <row r="202" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B202" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C202" s="36"/>
+      <c r="D202" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E202" s="36"/>
+      <c r="F202" s="36"/>
+      <c r="G202" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H202" s="36"/>
+    </row>
+    <row r="203" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B203" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="C203" s="33"/>
+      <c r="D203" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E203" s="33"/>
+      <c r="F203" s="33"/>
+      <c r="G203" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H203" s="33"/>
+    </row>
+    <row r="204" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B204" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C204" s="36"/>
+      <c r="D204" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E204" s="36"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H204" s="36"/>
+    </row>
+    <row r="205" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B205" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="C205" s="33"/>
+      <c r="D205" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H205" s="33"/>
+    </row>
+    <row r="206" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B206" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C206" s="36"/>
+      <c r="D206" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E206" s="36"/>
+      <c r="F206" s="36"/>
+      <c r="G206" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H206" s="36"/>
+    </row>
+    <row r="207" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B207" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" s="33"/>
+      <c r="D207" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E207" s="33"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H207" s="33"/>
+    </row>
+    <row r="208" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B208" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="C208" s="36"/>
+      <c r="D208" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E208" s="36"/>
+      <c r="F208" s="36"/>
+      <c r="G208" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H208" s="36"/>
+    </row>
+    <row r="209" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B209" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="C209" s="33"/>
+      <c r="D209" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E209" s="33"/>
+      <c r="F209" s="33"/>
+      <c r="G209" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H209" s="33"/>
+    </row>
+    <row r="210" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B210" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C210" s="36"/>
+      <c r="D210" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E210" s="36"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H210" s="36"/>
+    </row>
+    <row r="211" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B211" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C211" s="33"/>
+      <c r="D211" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E211" s="33"/>
+      <c r="F211" s="33"/>
+      <c r="G211" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H211" s="33"/>
+    </row>
+    <row r="212" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B212" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="C212" s="36"/>
+      <c r="D212" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E212" s="36"/>
+      <c r="F212" s="36"/>
+      <c r="G212" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H212" s="36"/>
+    </row>
+    <row r="213" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B213" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C213" s="33"/>
+      <c r="D213" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H213" s="33"/>
+    </row>
+    <row r="214" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B214" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="C214" s="36"/>
+      <c r="D214" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E214" s="36"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H214" s="36"/>
+    </row>
+    <row r="215" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B215" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C215" s="33"/>
+      <c r="D215" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H215" s="33"/>
+    </row>
+    <row r="216" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B216" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="C216" s="36"/>
+      <c r="D216" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E216" s="36"/>
+      <c r="F216" s="36"/>
+      <c r="G216" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H216" s="36"/>
+    </row>
+    <row r="217" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B217" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C217" s="33"/>
+      <c r="D217" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H217" s="33"/>
+    </row>
+    <row r="218" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B218" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C218" s="36"/>
+      <c r="D218" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E218" s="36"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H218" s="36"/>
+    </row>
+    <row r="219" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B219" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="C219" s="33"/>
+      <c r="D219" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H219" s="33"/>
+    </row>
+    <row r="220" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B220" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C220" s="36"/>
+      <c r="D220" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E220" s="36"/>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H220" s="36"/>
+    </row>
+    <row r="221" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B221" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C221" s="33"/>
+      <c r="D221" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H221" s="33"/>
+    </row>
+    <row r="222" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B222" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="C222" s="36"/>
+      <c r="D222" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E222" s="36"/>
+      <c r="F222" s="36"/>
+      <c r="G222" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H222" s="36"/>
+    </row>
+    <row r="223" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B223" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="C223" s="33"/>
+      <c r="D223" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H223" s="33"/>
+    </row>
+    <row r="224" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B224" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="C224" s="36"/>
+      <c r="D224" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E224" s="36"/>
+      <c r="F224" s="36"/>
+      <c r="G224" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H224" s="36"/>
+    </row>
+    <row r="225" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B225" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="C225" s="33"/>
+      <c r="D225" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E225" s="33"/>
+      <c r="F225" s="33"/>
+      <c r="G225" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H225" s="33"/>
+    </row>
+    <row r="226" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B226" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="C226" s="36"/>
+      <c r="D226" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E226" s="36"/>
+      <c r="F226" s="36"/>
+      <c r="G226" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H226" s="36"/>
+    </row>
+    <row r="227" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B227" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="C227" s="33"/>
+      <c r="D227" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H227" s="33"/>
+    </row>
+    <row r="228" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B228" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C228" s="36"/>
+      <c r="D228" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E228" s="36"/>
+      <c r="F228" s="36"/>
+      <c r="G228" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H228" s="36"/>
+    </row>
+    <row r="229" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B229" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="C229" s="33"/>
+      <c r="D229" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E229" s="33"/>
+      <c r="F229" s="33"/>
+      <c r="G229" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H229" s="33"/>
+    </row>
+    <row r="230" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B230" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="C230" s="36"/>
+      <c r="D230" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E230" s="36"/>
+      <c r="F230" s="36"/>
+      <c r="G230" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H230" s="36"/>
+    </row>
+    <row r="231" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B231" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="C231" s="33"/>
+      <c r="D231" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E231" s="33"/>
+      <c r="F231" s="33"/>
+      <c r="G231" s="33">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H231" s="33"/>
+    </row>
+    <row r="232" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B232" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="C232" s="36"/>
+      <c r="D232" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E232" s="36"/>
+      <c r="F232" s="36"/>
+      <c r="G232" s="36">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H232" s="36"/>
+    </row>
+    <row r="233" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B233" s="39" t="s">
+        <v>374</v>
+      </c>
+      <c r="C233" s="40"/>
+      <c r="D233" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E233" s="40"/>
+      <c r="F233" s="40"/>
+      <c r="G233" s="40">
+        <v>4.3542074363992203E-3</v>
+      </c>
+      <c r="H233" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -5059,123 +9282,122 @@
   <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="17.5">
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
       <c r="B6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="11" t="s">
+    </row>
+    <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1">
-      <c r="B7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="12.75" customHeight="1">
@@ -5187,9 +9409,9 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="11" spans="2:9" ht="18">
+    <row r="11" spans="2:9" ht="17.5">
       <c r="B11" s="5" t="s">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5197,226 +9419,227 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="11">
         <v>1055.55</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="23">
+      <c r="B16" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="24">
         <v>3.6</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="11">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B18" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="23">
+      <c r="B18" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="24">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="11">
         <v>1.05555</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B20" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="23">
+      <c r="B20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="24">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="11">
         <v>41.868000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B22" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="B22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="24">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="11">
         <v>1000000</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B24" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="23">
+      <c r="B24" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="24">
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="11">
         <v>0.15384600000000001</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="B26" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="24">
         <v>-1E-3</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="11">
         <v>1000</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B28" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="B28" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="24">
         <v>37.681199999999997</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="11">
         <v>2299</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B30" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="B30" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="24">
         <v>2.7777769999999999</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D31" s="11">
-        <v>3.6</v>
+        <f>1/3.6</f>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B32" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="23">
+      <c r="B32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="B33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="14">
         <v>4.5</v>
       </c>
     </row>
@@ -5426,24 +9649,60 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C8BD73-0DF8-4F72-B0F0-D4FB13B1EA60}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" style="46"/>
+    <col min="2" max="2" width="10.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="13">
+      <c r="B2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="2:4" ht="13">
+      <c r="B3" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="13" thickBot="1">
+      <c r="B4" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="48">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -5495,8 +9754,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5585,10 +9844,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38EE394D-E8DA-413E-B5EF-6DF7212C84CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5596,14 +9880,23 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641C9249-69FC-4D80-A8BF-F45CF9C8F019}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00599E1F-F19E-4A6D-9972-11258A4F9C4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>